--- a/Grading System in the University.xlsx
+++ b/Grading System in the University.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Microsoft Skills\MS Excel\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Microsoft Skills\MS Excel\Project\Submited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715B582-8DB9-46EB-96E2-F6A3A9873139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A6BAEC-4E01-4D91-80F7-632CD7C67AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47058F07-3100-4E26-9825-EE065574658D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="111">
   <si>
     <t>Course Title</t>
   </si>
@@ -327,7 +327,70 @@
     <t>12th Semeser</t>
   </si>
   <si>
-    <t>UNIVERISTY GRADING SYSTEM</t>
+    <t>Computer and Cyber Security</t>
+  </si>
+  <si>
+    <t>Information System and Design</t>
+  </si>
+  <si>
+    <t>Professional Ethics and Env. Pro.</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Data Mining Lab</t>
+  </si>
+  <si>
+    <t>Capstone Project</t>
+  </si>
+  <si>
+    <t>Professional Life Skills Development (PLSD)</t>
+  </si>
+  <si>
+    <t>Industrial and Operational Management</t>
+  </si>
+  <si>
+    <t>Information System and Design Lab</t>
+  </si>
+  <si>
+    <t>Capstone Project/Thesis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tahmid Mahmud         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Student ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 191002351</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -338,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,13 +453,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="SansSerif"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -404,13 +460,50 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +528,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -479,30 +596,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -520,17 +615,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -539,21 +623,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -566,20 +671,45 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -594,45 +724,24 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -642,45 +751,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -690,9 +766,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -703,65 +783,59 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -779,6 +853,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Semester Wise GPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$19:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9821428571428572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7647058823529411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF1C-451D-B70B-95B11F91AC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="905536815"/>
+        <c:axId val="898098367"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Semester</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$19:$M$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DF1C-451D-B70B-95B11F91AC8A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="905536815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898098367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="898098367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905536815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CD7AFF-38BF-4F28-A1D5-88DEE8A19A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,23 +2201,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777D51B-0D76-4578-A052-36CCCD5247F6}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1104,2240 +2226,2265 @@
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="C1" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="12"/>
-      <c r="B3" s="45" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="28"/>
+      <c r="E1" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="45" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="41"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="25" t="s">
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>2.5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="7">
         <f>B5*D5</f>
         <v>7.5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="11">
         <v>2.5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="7">
         <f t="shared" ref="K5:K10" si="0">H5*J5</f>
         <v>7.5</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
         <f>B6*D6</f>
-        <v>6</v>
-      </c>
-      <c r="G6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="8">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="M6" s="6" t="s">
+        <v>9.75</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="11">
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>2.75</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="7">
         <f>B7*D7</f>
         <v>8.25</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <v>1.5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>4</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="11">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>2.75</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="7">
         <f>B8*D8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9">
-        <v>3</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="11">
         <v>3.25</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
-      <c r="G9" s="17" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <v>1.5</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>2.75</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="17" t="s">
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="13">
         <f>SUM(B5:B8)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="17" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="8">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>2.25</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="11">
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="13">
         <f>SUM(E5:E8)</f>
-        <v>21.75</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="16"/>
-      <c r="M11" s="6" t="s">
+        <v>27.75</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="11">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="38">
         <f>B11/B10</f>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="G12" s="15" t="s">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="13">
         <f>SUM(H5:H10)</f>
         <v>15</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="16"/>
-      <c r="M12" s="6" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="11">
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="15" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="13">
         <f>SUM(K5:K10)</f>
-        <v>40.875</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="16"/>
-      <c r="M13" s="29" t="s">
+        <v>43.125</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="G14" s="23" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="38">
         <f>H13/H12</f>
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="45" t="s">
+        <v>2.875</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="45" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75">
-      <c r="A17" s="25" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="27" t="s">
+      <c r="J17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="46" t="s">
+      <c r="M17" s="21"/>
+      <c r="N17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="2" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>2.75</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="7">
         <f t="shared" ref="E18:E23" si="1">B18*D18</f>
         <v>8.25</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="8">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="11">
         <v>3.75</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="7">
         <f t="shared" ref="K18:K23" si="2">H18*J18</f>
         <v>11.25</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="2" t="s">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>3.5</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="10">
         <v>1.5</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="11">
         <v>3.25</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="7">
         <f t="shared" si="2"/>
         <v>4.875</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="27">
         <v>1</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="13">
         <f>B10</f>
         <v>9</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="13">
         <f>B12</f>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="P19" s="7">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="P19" s="19">
         <f>N19*O19</f>
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="2" t="s">
+        <v>27.75</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <v>2.25</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="11">
         <v>3.75</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="7">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="27">
         <v>2</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="13">
         <f>H12</f>
         <v>15</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="13">
         <f>H14</f>
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="P20" s="7">
+        <v>2.875</v>
+      </c>
+      <c r="P20" s="19">
         <f>N20*O20</f>
-        <v>40.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="2" t="s">
+        <v>43.125</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
-        <v>3</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="8">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="11">
         <v>3.5</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="7">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M21" s="6">
-        <v>3</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="M21" s="27">
+        <v>3</v>
+      </c>
+      <c r="N21" s="13">
         <f>B25</f>
         <v>13.5</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="13">
         <f>B27</f>
-        <v>2.8148148148148149</v>
-      </c>
-      <c r="P21" s="7">
+        <v>2.9814814814814814</v>
+      </c>
+      <c r="P21" s="19">
         <f t="shared" ref="P21:P30" si="3">N21*O21</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="2" t="s">
+        <v>40.25</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>3.25</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>9.75</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="11">
         <v>2.75</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="7">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="27">
         <v>4</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="13">
         <f>H25</f>
         <v>12.5</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="13">
         <f>H27</f>
         <v>3.55</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="19">
         <f t="shared" si="3"/>
         <v>44.375</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="2" t="s">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>1.5</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="11">
         <v>3.75</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="8">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="K23" s="16">
+      <c r="K23" s="7">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="27">
         <v>5</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="13">
         <f>B37</f>
         <v>9</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="13">
         <f>B39</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="25">
         <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="16"/>
-      <c r="M24" s="6">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="27">
         <v>6</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="13">
         <f>H39</f>
         <v>12</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="13">
         <f>H41</f>
         <v>3.6875</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="19">
         <f t="shared" si="3"/>
         <v>44.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="15" t="s">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="13">
         <f>SUM(B18:B23)</f>
         <v>13.5</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="15" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="13">
         <f>SUM(H18:H23)</f>
         <v>12.5</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="16"/>
-      <c r="M25" s="6">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="27">
         <v>7</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="13">
         <f>B52</f>
         <v>12.5</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="13">
         <f>B54</f>
         <v>3.44</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="19">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="15" t="s">
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="13">
         <f>SUM(E18:E23)</f>
-        <v>38</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="15" t="s">
+        <v>40.25</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="13">
         <f>SUM(K18:K23)</f>
         <v>44.375</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="16"/>
-      <c r="M26" s="6">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="27">
         <v>8</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="13">
         <f>H52</f>
         <v>12</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="13">
         <f>H54</f>
         <v>3.1875</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="25">
         <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="38">
         <f>B26/B25</f>
-        <v>2.8148148148148149</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="G27" s="23" t="s">
+        <v>2.9814814814814814</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="38">
         <f>H26/H25</f>
         <v>3.55</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="6">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="27">
         <v>9</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="17">
         <f>B66</f>
         <v>14</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="17">
         <f>B68</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="19">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="G28" s="3"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="M28" s="6">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="27">
         <v>10</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="17">
         <f>H66</f>
+        <v>14</v>
+      </c>
+      <c r="O28" s="13">
+        <f>H68</f>
+        <v>2.9821428571428572</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="3"/>
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="27">
+        <v>11</v>
+      </c>
+      <c r="N29" s="17">
         <v>12</v>
       </c>
-      <c r="O28" s="22">
-        <f>H68</f>
-        <v>3.46875</v>
-      </c>
-      <c r="P28" s="7">
+      <c r="O29" s="13">
+        <f>B82</f>
+        <v>3.875</v>
+      </c>
+      <c r="P29" s="19">
         <f t="shared" si="3"/>
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="M29" s="6">
-        <v>11</v>
-      </c>
-      <c r="N29" s="22">
-        <f>B80</f>
+        <v>46.5</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="27">
         <v>12</v>
       </c>
-      <c r="O29" s="22">
-        <f>B82</f>
-        <v>3.46875</v>
-      </c>
-      <c r="P29" s="7">
+      <c r="N30" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="O30" s="13">
+        <f>H82</f>
+        <v>3.7647058823529411</v>
+      </c>
+      <c r="P30" s="25">
         <f t="shared" si="3"/>
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="M30" s="6">
-        <v>12</v>
-      </c>
-      <c r="N30" s="22">
-        <f>H80</f>
-        <v>12</v>
-      </c>
-      <c r="O30" s="22">
-        <f>H82</f>
-        <v>3.46875</v>
-      </c>
-      <c r="P30" s="7">
-        <f t="shared" si="3"/>
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="27" t="s">
+      <c r="J31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="2" t="s">
+      <c r="M31" s="27"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="8">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="10">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <v>3.25</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="7">
         <f>B32*D32</f>
         <v>9.75</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="8">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="11">
         <v>3.75</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="7">
         <f t="shared" ref="K32:K37" si="4">H32*J32</f>
         <v>11.25</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="32">
         <f>SUM(N19:N30)</f>
-        <v>145.5</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="3"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="10">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="9">
-        <v>3</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="D33" s="11">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
         <f>B33*D33</f>
         <v>9</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="10">
         <v>1.5</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="11">
         <v>4</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="32">
         <f>SUM(P19:P30)</f>
-        <v>467.875</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="7"/>
+        <v>473.75</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="25"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="10">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="11">
         <v>3.25</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="7">
         <f>B34*D34</f>
         <v>9.75</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="10">
         <v>2</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="11">
         <v>3.5</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N34" s="35">
+      <c r="N34" s="34">
         <f>N33/N32</f>
-        <v>3.2156357388316152</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="11"/>
+        <v>3.2899305555555554</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="3"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickTop="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="16"/>
-      <c r="G35" s="17" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="7"/>
+      <c r="G35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="8">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="10">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="11">
         <v>3.5</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="7">
         <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
+      <c r="N35" s="22"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="24"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="16"/>
-      <c r="G36" s="17" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="10">
         <v>1.5</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="11">
         <v>4</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="13">
         <f>SUM(B32:B35)</f>
         <v>9</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="16"/>
-      <c r="G37" s="17" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="G37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="10">
         <v>1</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="11">
         <v>3.5</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="7">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="13">
         <f>SUM(E32:E35)</f>
         <v>28.5</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="16"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="16"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="38">
         <f>B38/B37</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="G39" s="15" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="13">
         <f>SUM(H32:H37)</f>
         <v>12</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="16"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:21">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="15" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="13">
         <f>SUM(K32:K37)</f>
         <v>44.25</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="16"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:21">
-      <c r="G41" s="23" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G41" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="38">
         <f>H40/H39</f>
         <v>3.6875</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75">
-      <c r="A43" s="12"/>
-      <c r="B43" s="45" t="s">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="45" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="25" t="s">
+      <c r="I43" s="35"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="27" t="s">
+      <c r="D44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="27" t="s">
+      <c r="J44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="8">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="11">
         <v>3.5</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="7">
         <f t="shared" ref="E45:E50" si="5">B45*D45</f>
         <v>10.5</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="8">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="10">
+        <v>3</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="11">
         <v>2.75</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="7">
         <f t="shared" ref="K45:K49" si="6">H45*J45</f>
         <v>8.25</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="8">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="11">
         <v>3.25</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="7">
         <f t="shared" si="5"/>
         <v>9.75</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="8">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="10">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="11">
         <v>3.25</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="7">
         <f t="shared" si="6"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="10">
         <v>1.5</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="10">
         <v>1.5</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="11">
         <v>3.25</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="7">
         <f t="shared" si="6"/>
         <v>4.875</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="8">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="11">
         <v>3.25</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="7">
         <f t="shared" si="5"/>
         <v>9.75</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="8">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="H48" s="10">
+        <v>3</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="11">
         <v>3.25</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="7">
         <f t="shared" si="6"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="10">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="11">
         <v>3.5</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="7">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="10">
         <v>1.5</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="11">
         <v>3.75</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="7">
         <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="11">
         <v>3.5</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="7">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="15"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="16"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="15" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="13">
         <f>SUM(B45:B50)</f>
         <v>12.5</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="16"/>
-      <c r="G52" s="15" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="G52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="13">
         <f>SUM(H45:H50)</f>
         <v>12</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="15" t="s">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="13">
         <f>SUM(E45:E50)</f>
         <v>43</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="16"/>
-      <c r="G53" s="15" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="G53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="13">
         <f>SUM(K45:K50)</f>
         <v>38.25</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="16"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="23" t="s">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="38">
         <f>B53/B52</f>
         <v>3.44</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="G54" s="23" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="38">
         <f>H53/H52</f>
         <v>3.1875</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="12"/>
-      <c r="B57" s="45" t="s">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="45" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I57" s="45"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="25" t="s">
+      <c r="I57" s="35"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J58" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="27" t="s">
+      <c r="J58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="10">
         <v>1.5</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="11">
         <v>4</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="7">
         <f t="shared" ref="E59:E64" si="7">B59*D59</f>
         <v>6</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="8">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="K59" s="16">
-        <f t="shared" ref="K59:K63" si="8">H59*J59</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2" t="s">
+      <c r="H59" s="10">
+        <v>3</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="11">
+        <v>2</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" ref="K59:K64" si="8">H59*J59</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="8">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="10">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="11">
         <v>2.5</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="7">
         <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="10">
         <v>1.5</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="9">
-        <v>4</v>
-      </c>
-      <c r="K60" s="16">
+      <c r="I60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K60" s="7">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2" t="s">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="10">
         <v>1.5</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="11">
         <v>3.5</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="7">
         <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="8">
-        <v>3</v>
-      </c>
-      <c r="I61" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="K61" s="16">
+      <c r="H61" s="10">
+        <v>3</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="11">
+        <v>3</v>
+      </c>
+      <c r="K61" s="7">
         <f t="shared" si="8"/>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="8">
-        <v>3</v>
-      </c>
-      <c r="C62" s="42" t="s">
+      <c r="B62" s="10">
+        <v>3</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="11">
         <v>2.75</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="7">
         <f t="shared" si="7"/>
         <v>8.25</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="10">
         <v>1.5</v>
       </c>
-      <c r="I62" s="42" t="s">
+      <c r="I62" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="11">
+        <v>3</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="9">
+      <c r="D63" s="11">
         <v>3.25</v>
       </c>
-      <c r="K62" s="16">
-        <f t="shared" si="8"/>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="8">
-        <v>2</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="E63" s="16">
+      <c r="E63" s="7">
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H63" s="8">
-        <v>3</v>
-      </c>
-      <c r="I63" s="42" t="s">
+      <c r="H63" s="10">
+        <v>3</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="11">
+        <v>3</v>
+      </c>
+      <c r="K63" s="7">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="9">
+      <c r="D64" s="11">
         <v>3.5</v>
       </c>
-      <c r="K63" s="16">
-        <f t="shared" si="8"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="8">
-        <v>3</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E64" s="16">
+      <c r="E64" s="7">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="16"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="15"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="16"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="15" t="s">
+      <c r="G64" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="10">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="11">
+        <v>4</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="13">
         <f>SUM(B59:B64)</f>
         <v>14</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="16"/>
-      <c r="G66" s="15" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="G66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="13">
         <f>SUM(H59:H64)</f>
-        <v>12</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="13">
         <f>SUM(E59:E64)</f>
         <v>44</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="16"/>
-      <c r="G67" s="15" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="G67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="13">
         <f>SUM(K59:K64)</f>
-        <v>41.625</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="16"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="23" t="s">
+        <v>41.75</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="38">
         <f>B67/B66</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="G68" s="23" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="G68" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="38">
         <f>H67/H66</f>
-        <v>3.46875</v>
-      </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="12"/>
-      <c r="B71" s="45" t="s">
+        <v>2.9821428571428572</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="45" t="s">
+      <c r="C71" s="35"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="I71" s="45"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="25" t="s">
+      <c r="I71" s="35"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="I72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="27" t="s">
+      <c r="J72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="8">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="10">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="11">
+        <v>4</v>
+      </c>
+      <c r="E73" s="7">
+        <f>B73*D73</f>
+        <v>12</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="10">
+        <v>2</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" ref="K73:K77" si="9">H73*J73</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="10">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74:E78" si="10">B74*D74</f>
+        <v>11.25</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="10">
+        <v>3</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="9">
+      <c r="J74" s="11">
         <v>3.5</v>
       </c>
-      <c r="E73" s="16">
-        <f t="shared" ref="E73:E77" si="9">B73*D73</f>
+      <c r="K74" s="7">
+        <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" s="8">
-        <v>3</v>
-      </c>
-      <c r="I73" s="3" t="s">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="10">
+        <v>2</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="9">
+      <c r="D75" s="11">
         <v>3.5</v>
       </c>
-      <c r="K73" s="16">
-        <f t="shared" ref="K73:K77" si="10">H73*J73</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="8">
+      <c r="E75" s="7">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="10">
         <v>1.5</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="I75" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="9">
+      <c r="J75" s="11">
         <v>4</v>
       </c>
-      <c r="E74" s="16">
+      <c r="K75" s="7">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H74" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="I74" s="3" t="s">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="10">
+        <v>3</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="9">
+      <c r="D76" s="11">
         <v>4</v>
       </c>
-      <c r="K74" s="16">
+      <c r="E76" s="7">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="8">
-        <v>3</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="E75" s="16">
+        <v>12</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="10">
+        <v>2</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="11">
+        <v>4</v>
+      </c>
+      <c r="K76" s="7">
         <f t="shared" si="9"/>
-        <v>9.75</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="8">
-        <v>3</v>
-      </c>
-      <c r="I75" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="K75" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="10">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="11">
+        <v>4</v>
+      </c>
+      <c r="E77" s="7">
         <f t="shared" si="10"/>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="E76" s="16">
+        <v>4</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="7">
         <f t="shared" si="9"/>
-        <v>4.875</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H76" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="I76" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="K76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="11">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7">
         <f t="shared" si="10"/>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="8">
-        <v>3</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E77" s="16">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H77" s="8">
-        <v>3</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="K77" s="16">
-        <f t="shared" si="10"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="17"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="15"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="13">
         <f>SUM(B73:B78)</f>
-        <v>12</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
-      <c r="G80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="G80" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="13">
         <f>SUM(H73:H78)</f>
-        <v>12</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="16"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="15" t="s">
+        <v>8.5</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="13">
         <f>SUM(E73:E78)</f>
-        <v>41.625</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="16"/>
-      <c r="G81" s="15" t="s">
+        <v>54.25</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="G81" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="13">
         <f>SUM(K73:K78)</f>
-        <v>41.625</v>
-      </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="16"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="19">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="38">
         <f>B81/B80</f>
-        <v>3.46875</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="G82" s="23" t="s">
+        <v>3.875</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="G82" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="38">
         <f>H81/H80</f>
-        <v>3.46875</v>
-      </c>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="21"/>
+        <v>3.7647058823529411</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="H71:I71"/>
     <mergeCell ref="N17:O17"/>
@@ -3347,13 +4494,9 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>